--- a/medicine/Pharmacie/Isabelle_Adenot/Isabelle_Adenot.xlsx
+++ b/medicine/Pharmacie/Isabelle_Adenot/Isabelle_Adenot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isabelle Adenot, née le 9 août 1957 à Rochefort (Charente-Maritime), est une pharmacienne française.
 </t>
@@ -513,18 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille et formation
-Isabelle, Annick, Thérèse[1] Alloy naît le 9 août 1957 à Rochefort (Charente-Maritime) du mariage d'Aymar Alloy, magistrat, et de Marcelle Mounier, enseignante[2].
-Le 2 juillet 1977, elle épouse Hubert Adenot, notaire à Corbigny (Nièvre). De ce mariage sont nés  Charles en 1980, Sophie en 1982 (nommée astronaute en 2022), Delphine en 1985 (épouse de Murphy Owusu) et Richard en 1989[2],[3].
-Elle est titulaire du diplôme de pharmacien et d'un diplôme universitaire d'orthopédie obtenus à la faculté de pharmacie de Paris-V, d'un diplôme de médication officinale obtenu à la faculté de pharmacie de Clermont-Ferrand, d'un diplôme d'État de docteur en pharmacie obtenu à la faculté de Dijon, d'un diplôme universitaire de génie biologique et médical obtenu à la faculté de pharmacie de l'université Paris-VI. Elle est également titulaire du diplôme préparatoire aux études comptables et financières (DPECF) du Centre national d'enseignement à distance (CNED)[2].
-Carrière professionnelle
-Isabelle Adenot commence sa carrière officinale en tant que pharmacien-adjoint en région Île-de-France. Elle devient titulaire d’officine dans la Nièvre en 1984[4], où elle exerce jusqu’en 2009.
-Isabelle Adenot commence son parcours ordinal en 1987, en tant que membre du conseil régional de l’Ordre des pharmaciens de Bourgogne qu’elle présidera de 1999 à 2007. Elle est la première femme élue à la présidence du conseil central A, en 2003[5] (titulaires d’officines). Elle devient membre de l'Académie nationale de pharmacie en 2007[6] et la première femme élue à la présidence, en juin 2009[7] du conseil national de l'Ordre des pharmaciens, réélue pour un second mandat en juin 2012[8],[9],[10], puis un troisième en juin 2015[11], qu'elle ne terminera pas étant nommée par décret en avril 2017 membre du collège de la Haute Autorité de santé (HAS).
-De juin 2009 à avril 2017, date de sa nomination à la HAS, elle préside le conseil de l'ordre national des pharmaciens[12], ainsi que la Conférence internationale des Ordres de pharmaciens francophones[13] (CIOPF) et de 2012 à 2016, le Comité de liaison des institutions ordinales. Elle préside également le Groupement pharmaceutique de l’Union européenne[14] (GPUE) en 2012[15]. Puis elle est élue à la vice présidence de la Fédération internationale pharmaceutique (FIP), fonction qu'elle occupe de septembre 2014[16] à 2017.
-Isabelle Adenot est nommée au conseil d'administration et du comité de déontologie de l'Agence nationale de sécurité du médicament et des produits de santé (ANSM)[17] ainsi qu'au conseil d'orientation de l'Observatoire national de la démographie des professions de santé (ONDPS)[18].
-Elle est titulaire d’une officine en région Île-de-France[19] jusqu'en 2017.
-Elle est nommée au collège de la Haute Autorité de santé le 8 avril 2017[20],[21] et devient notamment présidente de la Commission nationale d'évaluation des dispositifs médicaux et des technologies de santé (CNEDiMTS) de la HAS[22].
-En octobre 2023, elle est nommée présidente de l'Agence du numérique en santé[23],[24].
+          <t>Famille et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isabelle, Annick, Thérèse Alloy naît le 9 août 1957 à Rochefort (Charente-Maritime) du mariage d'Aymar Alloy, magistrat, et de Marcelle Mounier, enseignante.
+Le 2 juillet 1977, elle épouse Hubert Adenot, notaire à Corbigny (Nièvre). De ce mariage sont nés  Charles en 1980, Sophie en 1982 (nommée astronaute en 2022), Delphine en 1985 (épouse de Murphy Owusu) et Richard en 1989,.
+Elle est titulaire du diplôme de pharmacien et d'un diplôme universitaire d'orthopédie obtenus à la faculté de pharmacie de Paris-V, d'un diplôme de médication officinale obtenu à la faculté de pharmacie de Clermont-Ferrand, d'un diplôme d'État de docteur en pharmacie obtenu à la faculté de Dijon, d'un diplôme universitaire de génie biologique et médical obtenu à la faculté de pharmacie de l'université Paris-VI. Elle est également titulaire du diplôme préparatoire aux études comptables et financières (DPECF) du Centre national d'enseignement à distance (CNED).
 </t>
         </is>
       </c>
@@ -550,13 +559,58 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isabelle Adenot commence sa carrière officinale en tant que pharmacien-adjoint en région Île-de-France. Elle devient titulaire d’officine dans la Nièvre en 1984, où elle exerce jusqu’en 2009.
+Isabelle Adenot commence son parcours ordinal en 1987, en tant que membre du conseil régional de l’Ordre des pharmaciens de Bourgogne qu’elle présidera de 1999 à 2007. Elle est la première femme élue à la présidence du conseil central A, en 2003 (titulaires d’officines). Elle devient membre de l'Académie nationale de pharmacie en 2007 et la première femme élue à la présidence, en juin 2009 du conseil national de l'Ordre des pharmaciens, réélue pour un second mandat en juin 2012 puis un troisième en juin 2015, qu'elle ne terminera pas étant nommée par décret en avril 2017 membre du collège de la Haute Autorité de santé (HAS).
+De juin 2009 à avril 2017, date de sa nomination à la HAS, elle préside le conseil de l'ordre national des pharmaciens, ainsi que la Conférence internationale des Ordres de pharmaciens francophones (CIOPF) et de 2012 à 2016, le Comité de liaison des institutions ordinales. Elle préside également le Groupement pharmaceutique de l’Union européenne (GPUE) en 2012. Puis elle est élue à la vice présidence de la Fédération internationale pharmaceutique (FIP), fonction qu'elle occupe de septembre 2014 à 2017.
+Isabelle Adenot est nommée au conseil d'administration et du comité de déontologie de l'Agence nationale de sécurité du médicament et des produits de santé (ANSM) ainsi qu'au conseil d'orientation de l'Observatoire national de la démographie des professions de santé (ONDPS).
+Elle est titulaire d’une officine en région Île-de-France jusqu'en 2017.
+Elle est nommée au collège de la Haute Autorité de santé le 8 avril 2017, et devient notamment présidente de la Commission nationale d'évaluation des dispositifs médicaux et des technologies de santé (CNEDiMTS) de la HAS.
+En octobre 2023, elle est nommée présidente de l'Agence du numérique en santé,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Isabelle_Adenot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabelle_Adenot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 30 janvier 2008, Isabelle Adenot est nommée au grade de chevalier dans l'ordre national de la Légion d'honneur au titre de « pharmacienne ; 28 ans d'activités professionnelles et sociales »[1].
-Elle est titulaire de la médaille de bronze du tourisme depuis juillet 1996[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 30 janvier 2008, Isabelle Adenot est nommée au grade de chevalier dans l'ordre national de la Légion d'honneur au titre de « pharmacienne ; 28 ans d'activités professionnelles et sociales ».
+Elle est titulaire de la médaille de bronze du tourisme depuis juillet 1996.
 </t>
         </is>
       </c>
